--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N2">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O2">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P2">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q2">
-        <v>1087.257020871624</v>
+        <v>1107.815513258584</v>
       </c>
       <c r="R2">
-        <v>1087.257020871624</v>
+        <v>9970.339619327255</v>
       </c>
       <c r="S2">
-        <v>0.02533271460092094</v>
+        <v>0.02382313350783626</v>
       </c>
       <c r="T2">
-        <v>0.02533271460092094</v>
+        <v>0.02794069552667565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N3">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O3">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P3">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q3">
-        <v>111.0849738946094</v>
+        <v>135.2397365169067</v>
       </c>
       <c r="R3">
-        <v>111.0849738946094</v>
+        <v>1217.15762865216</v>
       </c>
       <c r="S3">
-        <v>0.002588241681683434</v>
+        <v>0.002908276928827258</v>
       </c>
       <c r="T3">
-        <v>0.002588241681683434</v>
+        <v>0.003410940049044712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N4">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O4">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P4">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q4">
-        <v>2224.546949962477</v>
+        <v>2547.356568161912</v>
       </c>
       <c r="R4">
-        <v>2224.546949962477</v>
+        <v>22926.20911345721</v>
       </c>
       <c r="S4">
-        <v>0.05183117875345728</v>
+        <v>0.0547798933027034</v>
       </c>
       <c r="T4">
-        <v>0.05183117875345728</v>
+        <v>0.06424798481069462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N5">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O5">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P5">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q5">
-        <v>2467.774457628837</v>
+        <v>2506.513209262851</v>
       </c>
       <c r="R5">
-        <v>2467.774457628837</v>
+        <v>22558.61888336566</v>
       </c>
       <c r="S5">
-        <v>0.05749829601876186</v>
+        <v>0.05390157305865959</v>
       </c>
       <c r="T5">
-        <v>0.05749829601876186</v>
+        <v>0.06321785674187146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N6">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O6">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P6">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q6">
-        <v>3474.165499588568</v>
+        <v>3543.004747279452</v>
       </c>
       <c r="R6">
-        <v>3474.165499588568</v>
+        <v>21258.02848367671</v>
       </c>
       <c r="S6">
-        <v>0.08094686112662475</v>
+        <v>0.07619091274959815</v>
       </c>
       <c r="T6">
-        <v>0.08094686112662475</v>
+        <v>0.05957310623686526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N7">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O7">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P7">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q7">
-        <v>1264.597499435832</v>
+        <v>1402.872793427214</v>
       </c>
       <c r="R7">
-        <v>1264.597499435832</v>
+        <v>12625.85514084492</v>
       </c>
       <c r="S7">
-        <v>0.02946468675140316</v>
+        <v>0.03016822336602059</v>
       </c>
       <c r="T7">
-        <v>0.02946468675140316</v>
+        <v>0.03538246315806681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N8">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O8">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P8">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q8">
-        <v>129.2038382050645</v>
+        <v>171.2596950296978</v>
       </c>
       <c r="R8">
-        <v>129.2038382050645</v>
+        <v>1541.33725526728</v>
       </c>
       <c r="S8">
-        <v>0.003010404987744776</v>
+        <v>0.003682871859415352</v>
       </c>
       <c r="T8">
-        <v>0.003010404987744776</v>
+        <v>0.004319415044785693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N9">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O9">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P9">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q9">
-        <v>2587.388682066109</v>
+        <v>3225.823417223004</v>
       </c>
       <c r="R9">
-        <v>2587.388682066109</v>
+        <v>29032.41075500704</v>
       </c>
       <c r="S9">
-        <v>0.06028526630427055</v>
+        <v>0.06937005396788504</v>
       </c>
       <c r="T9">
-        <v>0.06028526630427055</v>
+        <v>0.08135989146634198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N10">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O10">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P10">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q10">
-        <v>2870.288577936458</v>
+        <v>3174.101775572458</v>
       </c>
       <c r="R10">
-        <v>2870.288577936458</v>
+        <v>28566.91598015212</v>
       </c>
       <c r="S10">
-        <v>0.06687673656855868</v>
+        <v>0.06825780056509502</v>
       </c>
       <c r="T10">
-        <v>0.06687673656855868</v>
+        <v>0.08005539751026176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N11">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O11">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P11">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q11">
-        <v>4040.830198441815</v>
+        <v>4486.654056975303</v>
       </c>
       <c r="R11">
-        <v>4040.830198441815</v>
+        <v>26919.92434185182</v>
       </c>
       <c r="S11">
-        <v>0.09414995369342002</v>
+        <v>0.09648371712036923</v>
       </c>
       <c r="T11">
-        <v>0.09414995369342002</v>
+        <v>0.07543989857464631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N12">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O12">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P12">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q12">
-        <v>943.0966322473624</v>
+        <v>960.1808900779977</v>
       </c>
       <c r="R12">
-        <v>943.0966322473624</v>
+        <v>8641.628010701979</v>
       </c>
       <c r="S12">
-        <v>0.02197382713303539</v>
+        <v>0.02064830945426729</v>
       </c>
       <c r="T12">
-        <v>0.02197382713303539</v>
+        <v>0.02421713866534345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N13">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O13">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P13">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q13">
-        <v>96.3561170562099</v>
+        <v>117.2168190719378</v>
       </c>
       <c r="R13">
-        <v>96.3561170562099</v>
+        <v>1054.95137164744</v>
       </c>
       <c r="S13">
-        <v>0.002245064383655158</v>
+        <v>0.002520701232916252</v>
       </c>
       <c r="T13">
-        <v>0.002245064383655158</v>
+        <v>0.002956376231508837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N14">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O14">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P14">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q14">
-        <v>1929.592264305522</v>
+        <v>2207.879441739517</v>
       </c>
       <c r="R14">
-        <v>1929.592264305522</v>
+        <v>19870.91497565565</v>
       </c>
       <c r="S14">
-        <v>0.04495883603364492</v>
+        <v>0.04747957225752447</v>
       </c>
       <c r="T14">
-        <v>0.04495883603364492</v>
+        <v>0.0556858849717615</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N15">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O15">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P15">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q15">
-        <v>2140.57001744633</v>
+        <v>2172.479131640842</v>
       </c>
       <c r="R15">
-        <v>2140.57001744633</v>
+        <v>19552.31218476758</v>
       </c>
       <c r="S15">
-        <v>0.04987454511149937</v>
+        <v>0.04671830262047195</v>
       </c>
       <c r="T15">
-        <v>0.04987454511149937</v>
+        <v>0.0547930383974185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N16">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O16">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P16">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q16">
-        <v>3013.522763831218</v>
+        <v>3070.841138328856</v>
       </c>
       <c r="R16">
-        <v>3013.522763831218</v>
+        <v>18425.04682997313</v>
       </c>
       <c r="S16">
-        <v>0.07021404383143415</v>
+        <v>0.06603722149058591</v>
       </c>
       <c r="T16">
-        <v>0.07021404383143415</v>
+        <v>0.05163401079568803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N17">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O17">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P17">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q17">
-        <v>1204.594069978193</v>
+        <v>1276.374464689202</v>
       </c>
       <c r="R17">
-        <v>1204.594069978193</v>
+        <v>11487.37018220282</v>
       </c>
       <c r="S17">
-        <v>0.02806662748450758</v>
+        <v>0.02744792694664703</v>
       </c>
       <c r="T17">
-        <v>0.02806662748450758</v>
+        <v>0.03219199394581892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N18">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O18">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P18">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q18">
-        <v>123.0732920076756</v>
+        <v>155.8170509760534</v>
       </c>
       <c r="R18">
-        <v>123.0732920076756</v>
+        <v>1402.35345878448</v>
       </c>
       <c r="S18">
-        <v>0.002867565370078559</v>
+        <v>0.003350783920041919</v>
       </c>
       <c r="T18">
-        <v>0.002867565370078559</v>
+        <v>0.003929929421533735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N19">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O19">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P19">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q19">
-        <v>2464.620612120447</v>
+        <v>2934.947955816586</v>
       </c>
       <c r="R19">
-        <v>2464.620612120447</v>
+        <v>26414.53160234927</v>
       </c>
       <c r="S19">
-        <v>0.05742481250324923</v>
+        <v>0.06311489246463473</v>
       </c>
       <c r="T19">
-        <v>0.05742481250324923</v>
+        <v>0.07402359529963451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N20">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O20">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P20">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q20">
-        <v>2734.09729313152</v>
+        <v>2887.890102115336</v>
       </c>
       <c r="R20">
-        <v>2734.09729313152</v>
+        <v>25991.01091903802</v>
       </c>
       <c r="S20">
-        <v>0.06370352647851908</v>
+        <v>0.06210293197310889</v>
       </c>
       <c r="T20">
-        <v>0.06370352647851908</v>
+        <v>0.07283672876213859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N21">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O21">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P21">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q21">
-        <v>3849.098307566916</v>
+        <v>4082.088338335581</v>
       </c>
       <c r="R21">
-        <v>3849.098307566916</v>
+        <v>24492.53003001349</v>
       </c>
       <c r="S21">
-        <v>0.08968266658633385</v>
+        <v>0.08778369169871932</v>
       </c>
       <c r="T21">
-        <v>0.08968266658633385</v>
+        <v>0.06863741360625207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N22">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O22">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P22">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q22">
-        <v>483.3627228482914</v>
+        <v>488.0856094779149</v>
       </c>
       <c r="R22">
-        <v>483.3627228482914</v>
+        <v>2928.51365686749</v>
       </c>
       <c r="S22">
-        <v>0.01126218517938235</v>
+        <v>0.01049608756934954</v>
       </c>
       <c r="T22">
-        <v>0.01126218517938235</v>
+        <v>0.008206812561693571</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N23">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O23">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P23">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q23">
-        <v>49.38513563810742</v>
+        <v>59.5844420244</v>
       </c>
       <c r="R23">
-        <v>49.38513563810742</v>
+        <v>357.5066521464</v>
       </c>
       <c r="S23">
-        <v>0.001150656673290557</v>
+        <v>0.001281339808251879</v>
       </c>
       <c r="T23">
-        <v>0.001150656673290557</v>
+        <v>0.001001870036304511</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N24">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O24">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P24">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q24">
-        <v>988.9686156965126</v>
+        <v>1122.324130912095</v>
       </c>
       <c r="R24">
-        <v>988.9686156965126</v>
+        <v>6733.944785472569</v>
       </c>
       <c r="S24">
-        <v>0.02304262856874734</v>
+        <v>0.02413513557969484</v>
       </c>
       <c r="T24">
-        <v>0.02304262856874734</v>
+        <v>0.01887108244333102</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N25">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O25">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P25">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q25">
-        <v>1097.100463199291</v>
+        <v>1104.329207133915</v>
       </c>
       <c r="R25">
-        <v>1097.100463199291</v>
+        <v>6625.97524280349</v>
       </c>
       <c r="S25">
-        <v>0.02556206342129231</v>
+        <v>0.02374816187649227</v>
       </c>
       <c r="T25">
-        <v>0.02556206342129231</v>
+        <v>0.01856851059191451</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N26">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O26">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P26">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q26">
-        <v>1544.512533163952</v>
+        <v>1560.990625932307</v>
       </c>
       <c r="R26">
-        <v>1544.512533163952</v>
+        <v>6243.96250372923</v>
       </c>
       <c r="S26">
-        <v>0.03598661075448475</v>
+        <v>0.03356848468088385</v>
       </c>
       <c r="T26">
-        <v>0.03598661075448475</v>
+        <v>0.01749796515040371</v>
       </c>
     </row>
   </sheetData>
